--- a/movement_ad_hoc_data.xlsx
+++ b/movement_ad_hoc_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,31 +26,43 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>speed</t>
-  </si>
-  <si>
-    <t>drop</t>
   </si>
   <si>
     <t>received tcp</t>
   </si>
   <si>
-    <t>tcp packets/ per seconds</t>
+    <t>dropped tcp</t>
   </si>
   <si>
-    <t>dropped/(received tcp)</t>
+    <t>time cost(s)</t>
   </si>
   <si>
-    <t>time cost</t>
+    <t>speed(m/s)</t>
+  </si>
+  <si>
+    <t>tcp dropped rate</t>
+  </si>
+  <si>
+    <t>tcp packets received per second</t>
+  </si>
+  <si>
+    <t>tcp packets received per s</t>
+  </si>
+  <si>
+    <t>dropped tcp ratio</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="171" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -81,8 +93,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -95,8 +120,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6E0B4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -119,8 +150,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -129,8 +197,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -141,14 +223,61 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="22">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -163,6 +292,569 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>tcp</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> packets throughout rate &amp; tcp dropped rate vs node movement</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>tcp packets received per s</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$K$43:$K$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$43:$L$52</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>51.03333333333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51.63333333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50.65</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48.13333333333333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50.58333333333334</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>47.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50.0583430571762</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>48.53333333333333</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>46.54654654654654</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>46.66666666666666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-2096064832"/>
+        <c:axId val="1069416304"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dropped tcp ratio</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$K$43:$K$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$43:$M$52</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.027106466361855</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0213040671400904</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.052319842053307</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0623268698060942</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0757825370675453</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0889830508474576</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0722610722610722</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0879120879120879</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.106451612903226</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.117857142857143</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1068968912"/>
+        <c:axId val="1068969792"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2096064832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1069416304"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1069416304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2096064832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1068969792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1068968912"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1068968912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1068969792"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -305,11 +997,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2087636800"/>
-        <c:axId val="-2087183920"/>
+        <c:axId val="-2093342272"/>
+        <c:axId val="-2126367840"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2087636800"/>
+        <c:axId val="-2093342272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -352,7 +1044,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2087183920"/>
+        <c:crossAx val="-2126367840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -360,7 +1052,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2087183920"/>
+        <c:axId val="-2126367840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -411,7 +1103,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2087636800"/>
+        <c:crossAx val="-2093342272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -500,6 +1192,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -1003,7 +1735,545 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1303,13 +2573,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M62"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42:M48"/>
+    <sheetView tabSelected="1" topLeftCell="G32" workbookViewId="0">
+      <selection activeCell="R38" sqref="R38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="12" max="12" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.1640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1617,7 +2887,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>83</v>
       </c>
@@ -1632,7 +2902,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>84</v>
       </c>
@@ -1643,7 +2913,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>83</v>
       </c>
@@ -1654,7 +2924,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>82</v>
       </c>
@@ -1665,7 +2935,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>84</v>
       </c>
@@ -1676,7 +2946,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>80</v>
       </c>
@@ -1688,7 +2958,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>77</v>
       </c>
@@ -1696,7 +2966,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>27</v>
       </c>
@@ -1704,63 +2974,126 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>42</v>
       </c>
       <c r="B25">
         <v>30</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="K25" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>44</v>
       </c>
       <c r="B26">
         <v>26</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="K26" s="7">
+        <v>10</v>
+      </c>
+      <c r="L26" s="8">
+        <v>52.53</v>
+      </c>
+      <c r="M26" s="9">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>39</v>
       </c>
       <c r="B27">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="K27" s="7">
+        <v>20</v>
+      </c>
+      <c r="L27" s="8">
+        <v>52.87</v>
+      </c>
+      <c r="M27" s="9">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>42</v>
       </c>
       <c r="B28">
         <v>21</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="K28" s="7">
+        <v>30</v>
+      </c>
+      <c r="L28" s="8">
+        <v>51.6</v>
+      </c>
+      <c r="M28" s="9">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>41</v>
       </c>
       <c r="B29">
         <v>21</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="K29" s="7">
+        <v>40</v>
+      </c>
+      <c r="L29" s="8">
+        <v>52.93</v>
+      </c>
+      <c r="M29" s="9">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>39</v>
       </c>
       <c r="B30">
         <v>26</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="K30" s="7">
+        <v>50</v>
+      </c>
+      <c r="L30" s="8">
+        <v>53.33</v>
+      </c>
+      <c r="M30" s="9">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>43</v>
       </c>
       <c r="B31">
         <v>23</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="K31" s="7">
+        <v>60</v>
+      </c>
+      <c r="L31" s="8">
+        <v>52.4</v>
+      </c>
+      <c r="M31" s="9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>44</v>
       </c>
@@ -1819,22 +3152,22 @@
         <v>42</v>
       </c>
       <c r="H42" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I42" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I42" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="J42" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
@@ -1842,10 +3175,10 @@
         <v>39</v>
       </c>
       <c r="H43" s="2">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="I43" s="2">
-        <v>3152</v>
+        <v>3062</v>
       </c>
       <c r="J43" s="2">
         <v>60</v>
@@ -1853,12 +3186,13 @@
       <c r="K43" s="2">
         <v>10</v>
       </c>
-      <c r="L43" s="2">
-        <v>52.5</v>
+      <c r="L43" s="4">
+        <f>I43/J43</f>
+        <v>51.033333333333331</v>
       </c>
       <c r="M43" s="3">
         <f>H43/I43</f>
-        <v>2.7918781725888325E-2</v>
+        <v>2.7106466361854997E-2</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
@@ -1866,10 +3200,10 @@
         <v>25</v>
       </c>
       <c r="H44" s="2">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="I44" s="2">
-        <v>1586</v>
+        <v>1549</v>
       </c>
       <c r="J44" s="2">
         <v>30</v>
@@ -1877,12 +3211,13 @@
       <c r="K44" s="2">
         <v>20</v>
       </c>
-      <c r="L44" s="2">
-        <v>52.8</v>
+      <c r="L44" s="4">
+        <f t="shared" ref="L44:L52" si="0">I44/J44</f>
+        <v>51.633333333333333</v>
       </c>
       <c r="M44" s="3">
-        <f>H44/I44</f>
-        <v>4.0353089533417402E-2</v>
+        <f t="shared" ref="M44:M52" si="1">H44/I44</f>
+        <v>2.130406714009038E-2</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
@@ -1890,10 +3225,10 @@
         <v>29</v>
       </c>
       <c r="H45" s="2">
-        <v>101</v>
+        <v>53</v>
       </c>
       <c r="I45" s="2">
-        <v>1032</v>
+        <v>1013</v>
       </c>
       <c r="J45" s="2">
         <v>20</v>
@@ -1901,12 +3236,13 @@
       <c r="K45" s="2">
         <v>30</v>
       </c>
-      <c r="L45" s="2">
-        <v>51.6</v>
+      <c r="L45" s="4">
+        <f t="shared" si="0"/>
+        <v>50.65</v>
       </c>
       <c r="M45" s="3">
-        <f>H45/I45</f>
-        <v>9.7868217054263559E-2</v>
+        <f t="shared" si="1"/>
+        <v>5.231984205330701E-2</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
@@ -1914,10 +3250,10 @@
         <v>25</v>
       </c>
       <c r="H46" s="2">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I46" s="2">
-        <v>794</v>
+        <v>722</v>
       </c>
       <c r="J46" s="2">
         <v>15</v>
@@ -1925,12 +3261,13 @@
       <c r="K46" s="2">
         <v>40</v>
       </c>
-      <c r="L46" s="2">
-        <v>52.9</v>
+      <c r="L46" s="4">
+        <f t="shared" si="0"/>
+        <v>48.133333333333333</v>
       </c>
       <c r="M46" s="3">
-        <f>H46/I46</f>
-        <v>6.0453400503778336E-2</v>
+        <f t="shared" si="1"/>
+        <v>6.2326869806094184E-2</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
@@ -1938,10 +3275,10 @@
         <v>30</v>
       </c>
       <c r="H47" s="2">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="I47" s="2">
-        <v>640</v>
+        <v>607</v>
       </c>
       <c r="J47" s="2">
         <v>12</v>
@@ -1949,12 +3286,13 @@
       <c r="K47" s="2">
         <v>50</v>
       </c>
-      <c r="L47" s="2">
-        <v>53.3</v>
+      <c r="L47" s="4">
+        <f t="shared" si="0"/>
+        <v>50.583333333333336</v>
       </c>
       <c r="M47" s="3">
-        <f>H47/I47</f>
-        <v>5.46875E-2</v>
+        <f t="shared" si="1"/>
+        <v>7.57825370675453E-2</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
@@ -1962,56 +3300,137 @@
         <v>27</v>
       </c>
       <c r="H48" s="2">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="I48" s="2">
-        <v>524</v>
+        <v>472</v>
       </c>
       <c r="J48" s="2">
         <v>10</v>
       </c>
-      <c r="K48" s="2">
+      <c r="K48" s="14">
         <v>60</v>
       </c>
-      <c r="L48" s="2">
-        <v>52.4</v>
+      <c r="L48" s="4">
+        <f t="shared" si="0"/>
+        <v>47.2</v>
       </c>
       <c r="M48" s="3">
-        <f>H48/I48</f>
-        <v>0.10305343511450382</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>8.8983050847457626E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>27</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H49" s="10">
+        <v>31</v>
+      </c>
+      <c r="I49" s="10">
+        <v>429</v>
+      </c>
+      <c r="J49" s="11">
+        <v>8.57</v>
+      </c>
+      <c r="K49" s="10">
+        <v>70</v>
+      </c>
+      <c r="L49" s="12">
+        <f t="shared" si="0"/>
+        <v>50.058343057176195</v>
+      </c>
+      <c r="M49" s="13">
+        <f t="shared" si="1"/>
+        <v>7.2261072261072257E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>23</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H50" s="2">
+        <v>32</v>
+      </c>
+      <c r="I50" s="2">
+        <v>364</v>
+      </c>
+      <c r="J50" s="11">
+        <v>7.5</v>
+      </c>
+      <c r="K50" s="10">
+        <v>80</v>
+      </c>
+      <c r="L50" s="12">
+        <f t="shared" si="0"/>
+        <v>48.533333333333331</v>
+      </c>
+      <c r="M50" s="13">
+        <f t="shared" si="1"/>
+        <v>8.7912087912087919E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>32</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H51" s="2">
+        <v>33</v>
+      </c>
+      <c r="I51" s="2">
+        <v>310</v>
+      </c>
+      <c r="J51" s="11">
+        <v>6.66</v>
+      </c>
+      <c r="K51" s="10">
+        <v>90</v>
+      </c>
+      <c r="L51" s="12">
+        <f t="shared" si="0"/>
+        <v>46.546546546546544</v>
+      </c>
+      <c r="M51" s="13">
+        <f t="shared" si="1"/>
+        <v>0.1064516129032258</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>29</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H52" s="2">
+        <v>33</v>
+      </c>
+      <c r="I52" s="2">
+        <v>280</v>
+      </c>
+      <c r="J52" s="11">
+        <v>6</v>
+      </c>
+      <c r="K52" s="10">
+        <v>100</v>
+      </c>
+      <c r="L52" s="12">
+        <f t="shared" si="0"/>
+        <v>46.666666666666664</v>
+      </c>
+      <c r="M52" s="13">
+        <f t="shared" si="1"/>
+        <v>0.11785714285714285</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>29</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>30</v>
       </c>
@@ -2019,7 +3438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>13</v>
       </c>
@@ -2030,7 +3449,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>25</v>
       </c>
@@ -2041,7 +3460,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>18</v>
       </c>
@@ -2052,7 +3471,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>18</v>
       </c>
@@ -2063,7 +3482,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>25</v>
       </c>
@@ -2074,7 +3493,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>12</v>
       </c>
@@ -2085,7 +3504,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62">
         <f>SUM(A1:A61)</f>
         <v>3152</v>
@@ -2094,6 +3513,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2101,7 +3521,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
